--- a/upload/daftar_peserta/daftar_hadir2.xlsx
+++ b/upload/daftar_peserta/daftar_hadir2.xlsx
@@ -1,101 +1,79 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\useraccountname\Documents\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adlan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9AAA115-5F34-40D4-9F5F-C62A00107103}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{C1D7B85D-2000-49B8-91B6-F5B906B1EF76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="3345" windowWidth="13740" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="daftar_hadir" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="23">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="29" uniqueCount="14">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Nama Pembimbing</t>
-  </si>
-  <si>
     <t>Nama Siswa</t>
   </si>
   <si>
-    <t>Tatang</t>
-  </si>
-  <si>
-    <t>Kalan</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Kol</t>
-  </si>
-  <si>
-    <t>Bar</t>
-  </si>
-  <si>
-    <t>Fal</t>
-  </si>
-  <si>
-    <t>Jon</t>
-  </si>
-  <si>
-    <t>Dek</t>
-  </si>
-  <si>
-    <t>Kid</t>
-  </si>
-  <si>
-    <t>Fif</t>
-  </si>
-  <si>
-    <t>Oli</t>
-  </si>
-  <si>
-    <t>Fio</t>
-  </si>
-  <si>
-    <t>Pot</t>
-  </si>
-  <si>
     <t>Tanggal Pelaksanaan</t>
   </si>
   <si>
-    <t>Sekolah</t>
-  </si>
-  <si>
-    <t>Pejabat</t>
-  </si>
-  <si>
-    <t>SD Hegarmanah</t>
-  </si>
-  <si>
     <t>Lokasi Tour</t>
   </si>
   <si>
+    <t>Nama Sekolah</t>
+  </si>
+  <si>
+    <t xml:space="preserve">John </t>
+  </si>
+  <si>
+    <t>Budi Joko</t>
+  </si>
+  <si>
+    <t>Joko Budi</t>
+  </si>
+  <si>
+    <t>Paiji Ijo</t>
+  </si>
+  <si>
+    <t>Ijo Akbar</t>
+  </si>
+  <si>
+    <t>Putri Princess</t>
+  </si>
+  <si>
+    <t>2 Agustus 2020</t>
+  </si>
+  <si>
     <t>Bandung</t>
   </si>
   <si>
-    <t>Paijo Alm.</t>
+    <t>SD Hegarmana</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+<styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +208,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -414,15 +398,15 @@
   </fills>
   <borders count="10">
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color theme="4"/>
@@ -430,8 +414,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="thick">
         <color theme="4" tint="0.499984740745262"/>
@@ -439,8 +423,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.39997558519241921"/>
@@ -448,12 +432,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FF7F7F7F"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FF7F7F7F"/>
       </top>
@@ -463,12 +447,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FF3F3F3F"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -478,8 +462,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -487,12 +471,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <start style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
+      </start>
+      <end style="double">
         <color rgb="FF3F3F3F"/>
-      </right>
+      </end>
       <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
@@ -502,12 +486,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <start style="thin">
         <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
+      </start>
+      <end style="thin">
         <color rgb="FFB2B2B2"/>
-      </right>
+      </end>
       <top style="thin">
         <color rgb="FFB2B2B2"/>
       </top>
@@ -517,8 +501,8 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <start/>
+      <end/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -572,9 +556,8 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -634,7 +617,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://purl.oclc.org/ooxml/drawingml/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -787,25 +770,25 @@
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:lumMod val="110%"/>
+                <a:satMod val="105%"/>
+                <a:tint val="67%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="103%"/>
+                <a:tint val="73%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:lumMod val="105%"/>
+                <a:satMod val="109%"/>
+                <a:tint val="81%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -813,25 +796,25 @@
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:satMod val="103%"/>
+                <a:lumMod val="102%"/>
+                <a:tint val="94%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:satMod val="110%"/>
+                <a:lumMod val="100%"/>
+                <a:shade val="100%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:lumMod val="99%"/>
+                <a:satMod val="120%"/>
+                <a:shade val="78%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -844,21 +827,21 @@
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:miter lim="800%"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
@@ -872,7 +855,7 @@
           <a:effectLst>
             <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="63%"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -884,32 +867,32 @@
         </a:solidFill>
         <a:solidFill>
           <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
+            <a:tint val="95%"/>
+            <a:satMod val="170%"/>
           </a:schemeClr>
         </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
-            <a:gs pos="0">
+            <a:gs pos="0%">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="93%"/>
+                <a:satMod val="150%"/>
+                <a:shade val="98%"/>
+                <a:lumMod val="102%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="50%">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="98%"/>
+                <a:satMod val="130%"/>
+                <a:shade val="90%"/>
+                <a:lumMod val="103%"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="100000">
+            <a:gs pos="100%">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="63%"/>
+                <a:satMod val="120%"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -929,26 +912,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H12"/>
+<worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="5" max="5" width="21.42578125" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="7" max="7" width="15.42578125" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
     <col min="9" max="9" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -956,257 +939,239 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E2" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>6</v>
       </c>
-      <c r="E3" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>4</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>6</v>
-      </c>
-      <c r="D7" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F7" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>7</v>
-      </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G8" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>8</v>
-      </c>
-      <c r="D9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F9" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F10" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" t="s">
-        <v>19</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>10</v>
-      </c>
-      <c r="D11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s">
-        <v>19</v>
-      </c>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>11</v>
-      </c>
-      <c r="D12" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44051</v>
-      </c>
-      <c r="F12" t="s">
-        <v>21</v>
-      </c>
-      <c r="G12" t="s">
-        <v>19</v>
-      </c>
-      <c r="H12" t="s">
-        <v>22</v>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>